--- a/biology/Zoologie/Cathartesaura/Cathartesaura.xlsx
+++ b/biology/Zoologie/Cathartesaura/Cathartesaura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cathartesaura anaerobica
-Cathartesaura est un genre éteint de dinosaures sauropodes diplodocoïdes, rattaché à la famille des Rebbachisauridae[2]. Il a vécu au Crétacé supérieur (Turonien à Coniacien), il y a environ entre 94 et 86 Ma (millions d'années)[3] dans une région qui est maintenant l'Argentine, où il a été découvert dans la formation géologique de Huincul. Il est le seul et dernier Rebbachisauridae connu à avoir vécu durant cette période avant que ces derniers ne soient définitivement remplacés dans leur niche écologique par les titanosaures saltasaurinés[1].
-Le genre ne comporte que l'espèce Cathartesaura anaerobica connue par des restes fossiles très partiels et décrite par Pablo Ariel Gallina (d) et Sebastián Apesteguía (d) et leurs collègues en 2005[1].
+Cathartesaura est un genre éteint de dinosaures sauropodes diplodocoïdes, rattaché à la famille des Rebbachisauridae. Il a vécu au Crétacé supérieur (Turonien à Coniacien), il y a environ entre 94 et 86 Ma (millions d'années) dans une région qui est maintenant l'Argentine, où il a été découvert dans la formation géologique de Huincul. Il est le seul et dernier Rebbachisauridae connu à avoir vécu durant cette période avant que ces derniers ne soient définitivement remplacés dans leur niche écologique par les titanosaures saltasaurinés.
+Le genre ne comporte que l'espèce Cathartesaura anaerobica connue par des restes fossiles très partiels et décrite par Pablo Ariel Gallina (d) et Sebastián Apesteguía (d) et leurs collègues en 2005.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre provient du nom binomial de l'oiseau Urubu à tête rouge (Cathartes aura). Le nom générique Cathartes est la forme latine du grec καθαρτης (kathartēs), signifiant « purificateur » et rappelle le rôle écologique de ces oiseaux. Ce qui donne "lézard Cathartes". L'épithète spécifique vient du nom de l'entreprise argentine ANAEROBICOS S. A., qui a procuré aux scientifiques le matériel qui leur a permis de découvrir le fossile.
 </t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cathartesaura était un dinosaure sauropode de taille moyenne[1]. Il possédait un long cou puissant. Ses vertèbres possédaient des caractéristiques communes à tous les rebbachisauridés, comme les chambres pneumatiques dans les vertèbres cervicales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cathartesaura était un dinosaure sauropode de taille moyenne. Il possédait un long cou puissant. Ses vertèbres possédaient des caractéristiques communes à tous les rebbachisauridés, comme les chambres pneumatiques dans les vertèbres cervicales.
 </t>
         </is>
       </c>
@@ -575,12 +591,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au sein de la famille des Rebbachisauridae, Cathartesaura est placé dans la sous-famille des Limaysaurinae[4] en groupe frère avec le genre Limaysaurus.
-Cette phylogénie est reprise par José Luis Carballido et ses collègues en 2012[2], puis par Frederico Fanti et ses collègues en 2013[5].
-Cladogramme
-En 2015, Frederico Fanti et ses collègues révisent le genre Tataouinea. Leur nouvelle analyse phylogénétique des Rebbachisauridae transfère une partie des genres du clade des Limaysaurinae à celui des Rebbachisaurinae, mais maintient Cathartesaura parmi les Limaysaurinae en groupe frère du genre type Limaysaurus[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de la famille des Rebbachisauridae, Cathartesaura est placé dans la sous-famille des Limaysaurinae en groupe frère avec le genre Limaysaurus.
+Cette phylogénie est reprise par José Luis Carballido et ses collègues en 2012, puis par Frederico Fanti et ses collègues en 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cathartesaura</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cathartesaura</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, Frederico Fanti et ses collègues révisent le genre Tataouinea. Leur nouvelle analyse phylogénétique des Rebbachisauridae transfère une partie des genres du clade des Limaysaurinae à celui des Rebbachisaurinae, mais maintient Cathartesaura parmi les Limaysaurinae en groupe frère du genre type Limaysaurus :
 </t>
         </is>
       </c>
